--- a/nice/Common/jiekou.xlsx
+++ b/nice/Common/jiekou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23233" windowHeight="9583" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="历史" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,13 +132,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,7 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -162,8 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +192,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +217,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,45 +245,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,49 +255,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,133 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,75 +449,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,6 +481,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,145 +554,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,18 +1037,18 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="31.8623853211009" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4311926605505" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.0825688073394" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9908256880734" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3119266055046" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.2110091743119" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.0833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.2083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1096,9 +1096,7 @@
       <c r="E2" s="6">
         <v>44163</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1123,9 +1121,7 @@
       <c r="E3" s="6">
         <v>44187</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" ht="43.55" customHeight="1" spans="1:7">
@@ -1144,9 +1140,7 @@
       <c r="E4" s="6">
         <v>44132</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" ht="47" customHeight="1" spans="1:7">
@@ -1165,9 +1159,7 @@
       <c r="E5" s="6">
         <v>44136</v>
       </c>
-      <c r="F5" s="2">
-        <v>206301</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
   </sheetData>
@@ -1181,14 +1173,14 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="27.5321100917431" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.8440366972477" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.8416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
